--- a/import_template.xlsx
+++ b/import_template.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylorfeng/coding/php/sourcing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylorfeng/coding/php/文档/sourcing/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1160" yWindow="2180" windowWidth="24160" windowHeight="13820" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="import_template" sheetId="1" r:id="rId1"/>
-    <sheet name="vial" sheetId="2" r:id="rId2"/>
-    <sheet name="compact &amp; palette" sheetId="3" r:id="rId3"/>
+    <sheet name="stickwcup" sheetId="1" r:id="rId1"/>
+    <sheet name="vial" sheetId="3" r:id="rId2"/>
+    <sheet name="compact &amp; palette" sheetId="4" r:id="rId3"/>
+    <sheet name="fields" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -26,124 +27,196 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="56">
   <si>
     <t>cosmopak_item</t>
   </si>
   <si>
-    <t xml:space="preserve"> vendor_item</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> manufactory_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> item_description</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> material</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> style</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cup</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cup_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cover_material</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> overall_length</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> overall_width</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> overall_height</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mechanism</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> storage_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sample_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> related_projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moq</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> price</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mold_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cap_material</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> base_material</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stem_material</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vial</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ofc_vial</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> applicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> thick_wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> collar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan_well</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mirror</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> window</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan_well_shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan_well_width</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan_well_height</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> applicator_well</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> injector_pin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> latch_system</t>
+    <t>vendor_item</t>
+  </si>
+  <si>
+    <t>manufactory_name</t>
+  </si>
+  <si>
+    <t>item_description</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>cup_size</t>
+  </si>
+  <si>
+    <t>cover_material</t>
+  </si>
+  <si>
+    <t>overall_length</t>
+  </si>
+  <si>
+    <t>overall_width</t>
+  </si>
+  <si>
+    <t>overall_height</t>
+  </si>
+  <si>
+    <t>mechanism</t>
+  </si>
+  <si>
+    <t>storage_location</t>
+  </si>
+  <si>
+    <t>sample_available</t>
+  </si>
+  <si>
+    <t>related_projects</t>
+  </si>
+  <si>
+    <t>moq</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mold_status</t>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hahah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sda13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plastic</t>
+  </si>
+  <si>
+    <t>Push up</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>Oval</t>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2asd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sda13sdsa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cap_material</t>
+  </si>
+  <si>
+    <t>base_material</t>
+  </si>
+  <si>
+    <t>stem_material</t>
+  </si>
+  <si>
+    <t>vial</t>
+  </si>
+  <si>
+    <t>ofc_vial</t>
+  </si>
+  <si>
+    <t>applicator</t>
+  </si>
+  <si>
+    <t>thick_wall</t>
+  </si>
+  <si>
+    <t>collar</t>
+  </si>
+  <si>
+    <t>pan_well</t>
+  </si>
+  <si>
+    <t>mirror</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>pan_well_shape</t>
+  </si>
+  <si>
+    <t>pan_well_width</t>
+  </si>
+  <si>
+    <t>pan_well_height</t>
+  </si>
+  <si>
+    <t>applicator_well</t>
+  </si>
+  <si>
+    <t>injector_pin</t>
+  </si>
+  <si>
+    <t>latch_system</t>
+  </si>
+  <si>
+    <t>Stick With Cup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compact &amp; Palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,6 +227,29 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -180,8 +276,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -459,13 +562,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -527,6 +646,124 @@
       </c>
       <c r="T1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>123</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>123</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="T3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -544,72 +781,77 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -623,80 +865,353 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
